--- a/bobot.xlsx
+++ b/bobot.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Ada</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>BOBOT JENIS</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Tidak Bekerja</t>
@@ -496,411 +493,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="1">
-        <v>10</v>
-      </c>
-      <c r="E33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="1">
-        <v>10</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <f>SUM(C1:C45)</f>
+        <v>100</v>
+      </c>
       <c r="D46" s="1">
         <f>SUM(D1:D45)</f>
-        <v>100</v>
-      </c>
-      <c r="E46" s="1">
-        <f>SUM(E1:E45)</f>
         <v>100</v>
       </c>
     </row>
